--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.779</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.567</v>
+        <v>18.892</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.835</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.332</v>
+        <v>17.259</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.44</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.397</v>
+        <v>15.589</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.80669023307491</v>
+        <v>10.29522008719945</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34.58692711847883</v>
+        <v>33.02466187012691</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>37.21601935247978</v>
+        <v>37.8319379938424</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.04353158644572</v>
+        <v>13.18313967428542</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34.4838835187607</v>
+        <v>30.84016524899526</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>37.3339938852831</v>
+        <v>36.24663648361839</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.94602516410397</v>
+        <v>23.86613126647565</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.92876984073749</v>
+        <v>38.36521211009445</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.30889662597097</v>
+        <v>42.57202325251015</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.21955365279537</v>
+        <v>41.68333860560448</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44.85433546898473</v>
+        <v>48.64744532165368</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48.01165926652497</v>
+        <v>52.51704254857282</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.2016283711016</v>
+        <v>23.12850077367836</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>46.33590873088754</v>
+        <v>42.92882277506824</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50.63883607496071</v>
+        <v>49.29503591913412</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.08318609476007</v>
+        <v>15.14430018147047</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.76697423911386</v>
+        <v>41.42395491307104</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.36550480980939</v>
+        <v>47.81714864235835</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.25944866629649</v>
+        <v>13.74274690902923</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.59542783524527</v>
+        <v>35.25246583595469</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37.41239208333641</v>
+        <v>42.18979563410544</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32.07712096196379</v>
+        <v>27.22654154169324</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.97381817496063</v>
+        <v>44.81879678882231</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.32625823571887</v>
+        <v>50.38191374130163</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.27760143063796</v>
+        <v>49.4764274997991</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.80329589933968</v>
+        <v>59.10173592189725</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.92544615128044</v>
+        <v>64.12111272558494</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.29513353570289</v>
+        <v>27.8855957895091</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.26475652185368</v>
+        <v>52.60920791041777</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50.5182906558619</v>
+        <v>60.57363743894803</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.15489518890556</v>
+        <v>22.24233532007398</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.88338617993683</v>
+        <v>50.03018114975113</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.47432510959352</v>
+        <v>57.54085048810455</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.71141886775764</v>
+        <v>20.71051554696669</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.09707078237541</v>
+        <v>43.93842215073288</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.90711710009774</v>
+        <v>52.06696196038888</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.76328630363638</v>
+        <v>36.78023578169656</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.70340630701851</v>
+        <v>55.87925339548192</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.04897638576578</v>
+        <v>62.47407559009125</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43.91772493384963</v>
+        <v>64.0247810028246</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.52866801484116</v>
+        <v>74.64834163690841</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>55.65019522836403</v>
+        <v>80.34505742942744</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.8326428902283</v>
+        <v>40.13761497233988</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53.86885204219712</v>
+        <v>66.96842661147909</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>58.11368094331456</v>
+        <v>76.16119708480971</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.85539949195671</v>
+        <v>13.93579526352046</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.70968358443383</v>
+        <v>38.4406223713922</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.33493038378467</v>
+        <v>43.07528785146932</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24.0375702242906</v>
+        <v>17.23886114874454</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.56836045844378</v>
+        <v>36.83676055402188</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.41135054115007</v>
+        <v>42.03712863798742</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.9076251658849</v>
+        <v>29.08533809908116</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.96345374633759</v>
+        <v>45.28949903427726</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.3371163031</v>
+        <v>49.32071617987289</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.18815065555585</v>
+        <v>47.91395613590757</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.90061959361918</v>
+        <v>55.96265636770597</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.05186599237974</v>
+        <v>59.06903652468562</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.07570080606798</v>
+        <v>27.41244620016014</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.35738504578315</v>
+        <v>49.54094141815393</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.64845967652309</v>
+        <v>55.57872241524474</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.03343777476532</v>
+        <v>15.70095651503698</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.7884341901083</v>
+        <v>43.848567231192</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.38237729595043</v>
+        <v>49.88725802670446</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.14972935061515</v>
+        <v>14.48125848664491</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.5729656628133</v>
+        <v>38.00285661026888</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.3819865086292</v>
+        <v>44.53720292052523</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.9319773291807</v>
+        <v>29.22973881442872</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.89912568466276</v>
+        <v>48.59617861240596</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.24441993425886</v>
+        <v>53.8127302501536</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.14246896216603</v>
+        <v>52.67882019511505</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>42.74269570233947</v>
+        <v>63.39184929966816</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>45.85753649927378</v>
+        <v>67.49667882329689</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.07165888285901</v>
+        <v>29.33232487875883</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.18391890496444</v>
+        <v>56.46592824942633</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.42429748691581</v>
+        <v>63.86318212566747</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.66426411182698</v>
+        <v>23.61194966334512</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.46717039565066</v>
+        <v>53.3346823483997</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.057589242006</v>
+        <v>60.50019527460974</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.19362442612319</v>
+        <v>22.27563836102956</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.67004932586143</v>
+        <v>47.58397691857483</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.47656329723294</v>
+        <v>55.34488146104292</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>38.22843914680168</v>
+        <v>39.58117866292915</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.2418766586029</v>
+        <v>60.51876255347796</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.58408576410449</v>
+        <v>66.78975017081872</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.38608454522109</v>
+        <v>67.8989879717611</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.07475885523381</v>
+        <v>79.70080419676859</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.19566776431068</v>
+        <v>84.41787823109155</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.19875874735999</v>
+        <v>42.28333931048199</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>52.38195947354077</v>
+        <v>71.59277023628097</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.62071416338829</v>
+        <v>80.25413343882886</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.85539949195671</v>
+        <v>12.47545780981651</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.70968358443383</v>
+        <v>36.84903417196898</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.33493038378467</v>
+        <v>41.3889024417926</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.0375702242906</v>
+        <v>15.62077858675038</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.56836045844378</v>
+        <v>35.0662329669963</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.41135054115007</v>
+        <v>40.16546577658325</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.9076251658849</v>
+        <v>27.41728001832879</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>36.96345374633759</v>
+        <v>43.49004489952261</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.3371163031</v>
+        <v>47.43057693356882</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.18815065555585</v>
+        <v>46.37056296522336</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.90061959361918</v>
+        <v>54.3278047490077</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.05186599237974</v>
+        <v>57.3946196316767</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.07570080606798</v>
+        <v>26.04822383858833</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>44.35738504578315</v>
+        <v>48.00756516009258</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48.64845967652309</v>
+        <v>53.92665796828623</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.03343777476532</v>
+        <v>15.20871595330052</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.7884341901083</v>
+        <v>43.25121275042417</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.38237729595043</v>
+        <v>49.18624700783106</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.14972935061515</v>
+        <v>13.88275180487577</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.5729656628133</v>
+        <v>37.27852535247724</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.3819865086292</v>
+        <v>43.70125174387424</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.9319773291807</v>
+        <v>28.60497390908147</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.89912568466276</v>
+        <v>47.86225746452757</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.24441993425886</v>
+        <v>52.98016525330716</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.14246896216603</v>
+        <v>52.12695606433086</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.74269570233947</v>
+        <v>62.75393102248776</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.85753649927378</v>
+        <v>66.80720773088933</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.07165888285901</v>
+        <v>28.91816521391814</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>44.18391890496444</v>
+        <v>55.91056417486101</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.42429748691581</v>
+        <v>63.17526115182947</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.66426411182698</v>
+        <v>23.19697891935219</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.46717039565066</v>
+        <v>52.82526863237651</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.057589242006</v>
+        <v>59.89548269109463</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.19362442612319</v>
+        <v>21.73380935240497</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.67004932586143</v>
+        <v>46.92556804399038</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.47656329723294</v>
+        <v>54.58472955428209</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.22843914680168</v>
+        <v>39.02400445552297</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.2418766586029</v>
+        <v>59.86145555767074</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.58408576410449</v>
+        <v>66.04172192354842</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.38608454522109</v>
+        <v>67.40756901876011</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.07475885523381</v>
+        <v>79.12852502471122</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.19566776431068</v>
+        <v>83.80238432350217</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.19875874735999</v>
+        <v>41.9127102630994</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.38195947354077</v>
+        <v>71.0911712629856</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.62071416338829</v>
+        <v>79.63130135160441</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.66947147417994</v>
+        <v>5.664776141288012</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.43908222193631</v>
+        <v>27.88918463884088</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.07388071507307</v>
+        <v>32.53978033005428</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>19.61032883587028</v>
+        <v>8.1560820868241</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.03939814846538</v>
+        <v>25.27728805465326</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.89515099627735</v>
+        <v>30.49360035863733</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.36681752381563</v>
+        <v>18.43078816468494</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.33971725640664</v>
+        <v>32.4707826182364</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.72443180540355</v>
+        <v>36.51627928017807</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.76958688503081</v>
+        <v>35.6741062051229</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.39121494386723</v>
+        <v>42.42929680802098</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.55464621355016</v>
+        <v>46.23243103674298</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.92386643902618</v>
+        <v>17.61844643230803</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>40.04367467351874</v>
+        <v>36.82988372408089</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.35527279193553</v>
+        <v>42.97002848452045</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.99795283805182</v>
+        <v>10.21748790044596</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.67111913979279</v>
+        <v>35.97768039780969</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.27525232252078</v>
+        <v>42.1860273806864</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>19.88051695774069</v>
+        <v>8.458488342641353</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.20522070777793</v>
+        <v>29.41049838411853</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.02770081865524</v>
+        <v>36.13188192610297</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.5531570436858</v>
+        <v>21.51415864054312</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.44002547190147</v>
+        <v>38.63064618650589</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.79695104292661</v>
+        <v>44.0086547767518</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.88145007314449</v>
+        <v>43.20766000508274</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.39402615078698</v>
+        <v>52.62408858321584</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.52213288969</v>
+        <v>57.57110220358108</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.0696356325542</v>
+        <v>22.14423023362095</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.02476342095014</v>
+        <v>46.25340095972417</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.28676390009689</v>
+        <v>53.96260766379402</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.38336935164152</v>
+        <v>18.13446156650129</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.10324309687701</v>
+        <v>45.44161561665869</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.70030614933037</v>
+        <v>52.77316941711113</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.66171667730971</v>
+        <v>16.22910229599388</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.03828406012519</v>
+        <v>38.93787178820124</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>38.85450230957697</v>
+        <v>46.85907953792721</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.57807322935004</v>
+        <v>31.91144701685548</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.51016688544902</v>
+        <v>50.56840491045237</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.86076948686578</v>
+        <v>56.9843495472053</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.85550225552609</v>
+        <v>58.56541534377779</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.45576535760981</v>
+        <v>69.00542099051449</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.58402195732852</v>
+        <v>74.61253061783069</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.93209694483438</v>
+        <v>35.16207780801228</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>47.95709306746863</v>
+        <v>61.42275564593545</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.21146295194987</v>
+        <v>70.36781654435391</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.27794927250855</v>
+        <v>14.19848216417451</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.05757492548098</v>
+        <v>37.40926887910215</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.68361574855817</v>
+        <v>42.1794399407551</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.47680042545213</v>
+        <v>17.23132728020462</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.91696280224709</v>
+        <v>35.4128876176157</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.76335594569321</v>
+        <v>40.7645887292251</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.36104321175072</v>
+        <v>28.23254270163281</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.34351051900065</v>
+        <v>43.19637378687763</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.72049235178664</v>
+        <v>47.36167200242503</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.63821372639632</v>
+        <v>46.17358571090647</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.27324358073838</v>
+        <v>53.4210669767383</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>47.42659290856006</v>
+        <v>57.22626425958348</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.63038167577472</v>
+        <v>27.12151029763988</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>45.76472786710978</v>
+        <v>47.50108086630586</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>50.06239239091003</v>
+        <v>53.79274981772018</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.57155037709612</v>
+        <v>20.44120494884607</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.25472939323059</v>
+        <v>47.21906610436213</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.85017454344107</v>
+        <v>53.50575300239148</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.71030954034012</v>
+        <v>19.25063232505552</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.04609480945695</v>
+        <v>41.29024344375405</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.85931039604058</v>
+        <v>48.09830916909397</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.51026596603587</v>
+        <v>33.13763609269965</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.40668536838855</v>
+        <v>51.20549025718745</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.75595456914512</v>
+        <v>56.65920321727263</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.71408887934714</v>
+        <v>55.61890762615418</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.24004062205329</v>
+        <v>65.5314800203891</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.35816221910434</v>
+        <v>70.47532867697907</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.74126100158011</v>
+        <v>33.56515500047794</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>45.71093368437027</v>
+        <v>58.87825881643585</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.68244040383237</v>
+        <v>26.64819584728345</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>41.41102652987607</v>
+        <v>54.88383212935781</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.99930320996954</v>
+        <v>62.31706593113176</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.2046680941923</v>
+        <v>25.28888949716443</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.59090869092798</v>
+        <v>48.99527961180954</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.39766265498167</v>
+        <v>57.02734593733929</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.24007575549565</v>
+        <v>41.71945184596188</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.18054822386808</v>
+        <v>61.2481012972751</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.52333508338053</v>
+        <v>67.76044049966424</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.39767827982659</v>
+        <v>69.20358687005313</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>52.00982515843351</v>
+        <v>80.10699064348826</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>55.12768985849467</v>
+        <v>85.71439334776231</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.32155751585617</v>
+        <v>44.90838624443943</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53.3590906647221</v>
+        <v>72.27510466179248</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.59931895667648</v>
+        <v>81.3428839039523</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-37.39147842865632</v>
+        <v>14.29501739314686</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-29.3739588814928</v>
+        <v>38.08811836181376</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-26.6948517662364</v>
+        <v>42.5613796638374</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-40.63081488125079</v>
+        <v>17.5545156159939</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-31.926831606307</v>
+        <v>36.55979751064714</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-29.02533776546891</v>
+        <v>41.57660925380976</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-36.02331620787809</v>
+        <v>28.97017636013944</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-28.82306967934874</v>
+        <v>44.70092858418079</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-26.40006200991385</v>
+        <v>48.59780249517239</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-30.14004148012179</v>
+        <v>46.9110739751379</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-21.2446294609451</v>
+        <v>54.71908184624264</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-18.03011084521217</v>
+        <v>57.77917130791686</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-31.37486691825919</v>
+        <v>27.05880789938078</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-17.82824442217181</v>
+        <v>48.42758452641534</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-13.44914653751794</v>
+        <v>54.26989177845075</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-36.48102645260732</v>
+        <v>21.06950920213418</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-28.56346346461839</v>
+        <v>48.48673412856463</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-25.91590529208391</v>
+        <v>54.2532038796363</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-39.75924359576013</v>
+        <v>20.09495291600226</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-31.16350109387908</v>
+        <v>42.99688297686752</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-28.29621564764771</v>
+        <v>49.23082183917012</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-35.22439010746687</v>
+        <v>34.54959963467017</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-28.11337759020277</v>
+        <v>53.42989456144835</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-25.71894417076671</v>
+        <v>58.40793726602489</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-29.43062358332403</v>
+        <v>57.09836628314265</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-20.64807157374067</v>
+        <v>67.53520108550586</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-17.47013315466291</v>
+        <v>71.56455563372604</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-30.64672947056349</v>
+        <v>34.42703844366136</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-17.27075025016914</v>
+        <v>60.76104186195653</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-12.94265758304616</v>
+        <v>67.84126316944115</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-27.45907704894204</v>
+        <v>28.12811428099859</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-19.49701972115792</v>
+        <v>56.97899727643365</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-16.85542458226934</v>
+        <v>63.86761437097263</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-30.27075093202998</v>
+        <v>26.95825178478186</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-21.62550487586399</v>
+        <v>51.49545203658228</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-18.76333446172483</v>
+        <v>58.94882328692896</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-25.45464910397818</v>
+        <v>43.90471332958047</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-18.30038291876874</v>
+        <v>64.22015491287868</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-15.91128630443192</v>
+        <v>70.24718887891595</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-19.74788852710089</v>
+        <v>71.19681932468443</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-10.88004323105</v>
+        <v>82.6343505950104</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-7.699473503961023</v>
+        <v>87.23940231820606</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-21.1208021448474</v>
+        <v>46.36212667281444</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-7.67911804403969</v>
+        <v>74.70788868078731</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-3.356709764979016</v>
+        <v>83.04141813905639</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-40.24347497184346</v>
+        <v>5.020237147062833</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-32.21239311896623</v>
+        <v>27.50337460863448</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-29.51900845570547</v>
+        <v>31.95452595920541</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-43.53740762496188</v>
+        <v>7.874473287627719</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-34.82021403914808</v>
+        <v>25.45403432046026</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-31.90201030783624</v>
+        <v>30.47882247621507</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-38.96711030238722</v>
+        <v>18.48578702301251</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-31.75550227397378</v>
+        <v>32.96033008332268</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-29.31837793235739</v>
+        <v>36.84969027916259</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-32.97829841105261</v>
+        <v>36.16252121018795</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-24.07148727684197</v>
+        <v>43.22621599588125</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-20.83870105582155</v>
+        <v>46.39261074140764</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-34.10725894883792</v>
+        <v>17.69573361560917</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-20.5413036862037</v>
+        <v>37.48265286000974</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-16.13843151673249</v>
+        <v>43.3586462911765</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-39.3322414793082</v>
+        <v>9.628824906311612</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-31.40120987216678</v>
+        <v>35.72023745461033</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-28.73931075749183</v>
+        <v>41.62922050303479</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-42.6648541963096</v>
+        <v>8.179771550871717</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-34.05597721385569</v>
+        <v>29.66587320881971</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-31.17193178960103</v>
+        <v>36.08323752077592</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-38.16764421783054</v>
+        <v>21.66316559828181</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-31.04534244651555</v>
+        <v>39.28087820511642</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-28.63675101797535</v>
+        <v>44.41275099193106</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-32.26885109769757</v>
+        <v>43.67537700725529</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-23.47500684682023</v>
+        <v>53.36769695125014</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-20.27868709559213</v>
+        <v>57.52642058131607</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-33.37939281297643</v>
+        <v>22.27928187552736</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-19.98417880470101</v>
+        <v>47.03171802644605</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-15.63220614483573</v>
+        <v>54.33747921471976</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-30.28830189639968</v>
+        <v>18.73678822063908</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-22.31443937237616</v>
+        <v>46.38654740357892</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-19.65994576944177</v>
+        <v>53.35642855069214</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-33.1569156406621</v>
+        <v>17.13801371047673</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-24.50038966162069</v>
+        <v>40.38444519173962</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-21.62301784017092</v>
+        <v>47.95288428097442</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-28.37913646738971</v>
+        <v>33.22060682112285</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-21.21506674930797</v>
+        <v>52.38601870756503</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-18.8131359590841</v>
+        <v>58.50987241853725</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-22.5700659024511</v>
+        <v>59.93669814546099</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-13.69319904601321</v>
+        <v>70.6494818727144</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-10.4955562346127</v>
+        <v>75.42180875186483</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-23.83992951234311</v>
+        <v>36.23927350430577</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-10.3820505491258</v>
+        <v>63.13464646310921</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-6.038166728578979</v>
+        <v>71.62960227002716</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-11.52663176175532</v>
+        <v>5.07586564819843</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-3.733846299680614</v>
+        <v>28.23354495740223</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1.104229453647939</v>
+        <v>32.98109552302472</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-13.79515158737491</v>
+        <v>7.765221760441268</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-5.340282963467708</v>
+        <v>25.84294208287682</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-2.490381629487494</v>
+        <v>31.17373842891813</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-8.750112062929084</v>
+        <v>18.51011916002843</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-1.75531768975366</v>
+        <v>33.37802441718362</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.6245870503203577</v>
+        <v>37.51872938691504</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-3.549549380554879</v>
+        <v>36.5987492742489</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>5.099655273574527</v>
+        <v>43.83840785646528</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>8.256924972373263</v>
+        <v>47.60973842077415</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-5.41199957153588</v>
+        <v>17.69440012891394</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.744336769961819</v>
+        <v>37.98207874680052</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>12.04725259110554</v>
+        <v>44.23613361778573</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-10.83580175322452</v>
+        <v>10.00656824855812</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-3.139343012328936</v>
+        <v>36.74209765528288</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-0.54024399356787</v>
+        <v>43.01618504850065</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-13.14937427267554</v>
+        <v>8.385886953127645</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-4.798755324706711</v>
+        <v>30.33208416160267</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1.981946656007743</v>
+        <v>37.12999297519993</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-8.179765843759206</v>
+        <v>22.00189078485214</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1.270909467612604</v>
+        <v>39.98021388965191</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1.081354573467436</v>
+        <v>45.41913229339205</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-3.062443877103853</v>
+        <v>44.66457865308207</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5.477897820753171</v>
+        <v>54.58799306293865</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>8.599995545819347</v>
+        <v>59.50112254254691</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-4.902069488485687</v>
+        <v>22.76968724638489</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.089785715230136</v>
+        <v>48.00659906467497</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>12.34338410915798</v>
+        <v>55.78517797282416</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-2.756478423546945</v>
+        <v>17.14279810243221</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.983873372575566</v>
+        <v>45.38375921773846</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.575283332240957</v>
+        <v>52.82671088603636</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-4.647556751289123</v>
+        <v>15.37874277085254</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>3.751866218997321</v>
+        <v>39.04193532130728</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>6.561680452775718</v>
+        <v>47.08970853702716</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.5784000988862985</v>
+        <v>31.59522969955136</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>7.529922741589765</v>
+        <v>51.078976730294</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>9.875256195590637</v>
+        <v>57.59843975092898</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5.626154859770274</v>
+        <v>59.25798055446823</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.25087340303492</v>
+        <v>70.20514728557377</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>17.37226867878056</v>
+        <v>75.78878025277317</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.654493878059405</v>
+        <v>35.06193965816227</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.71169836668054</v>
+        <v>62.40897223273227</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>20.95647642675037</v>
+        <v>71.47522453480616</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-10.56123868903548</v>
+        <v>20.91986334106464</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-2.668510634257544</v>
+        <v>45.57085882674436</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-0.04386510370500218</v>
+        <v>50.30207583304968</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-12.6767861034818</v>
+        <v>25.12783361030964</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-4.107549836125244</v>
+        <v>44.95438390283759</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1.264755219481366</v>
+        <v>50.27546666086207</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-7.576804722866179</v>
+        <v>37.1479441898645</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.4874896539232907</v>
+        <v>53.58129388890369</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1.886778868116842</v>
+        <v>57.73287245605709</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-2.375671731632451</v>
+        <v>56.26635713142606</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>6.3801471262002</v>
+        <v>64.36032069688112</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>9.529161299367885</v>
+        <v>67.52272605269476</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-4.331066566781644</v>
+        <v>35.85496604776574</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>9.002130048352655</v>
+        <v>58.1492450548453</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.29195038302474</v>
+        <v>64.36450550259232</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-9.956000986191135</v>
+        <v>22.30549301055033</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-2.16202083716793</v>
+        <v>50.55163360199293</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.431757412488615</v>
+        <v>56.59201174969078</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-12.12099826562412</v>
+        <v>21.89160892529459</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.658697689303274</v>
+        <v>45.59794128884451</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-0.8493608093652014</v>
+        <v>52.1469246454432</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-7.098896214044821</v>
+        <v>36.77042458374521</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.09776046985941633</v>
+        <v>56.33062074040983</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>2.248553957281693</v>
+        <v>61.57771590257683</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-1.97852723500948</v>
+        <v>60.44875216227939</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>6.665839192265324</v>
+        <v>71.16853002008031</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>9.779067945161003</v>
+        <v>75.28628801645655</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-3.906510956378419</v>
+        <v>37.25274325944062</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.258199815910515</v>
+        <v>64.50012758764609</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>13.49814708346803</v>
+        <v>71.9530173340477</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1.823902948745456</v>
+        <v>29.0082670639483</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>6.011989673327996</v>
+        <v>58.69811718859972</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>8.59957075896375</v>
+        <v>65.8508872063644</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-3.563056642877761</v>
+        <v>28.43079270650279</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>4.94585555217261</v>
+        <v>53.7821537516479</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>7.749710934673139</v>
+        <v>61.54217788348159</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1.71698723066055</v>
+        <v>45.80836395366387</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>8.758961114690614</v>
+        <v>66.81326646727217</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>11.09966593819249</v>
+        <v>73.1029176462429</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.766400012219549</v>
+        <v>74.25573735007266</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>15.49181823923239</v>
+        <v>85.97173176201028</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>18.60746989454415</v>
+        <v>90.676709794039</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.704449483553233</v>
+        <v>48.84776321476397</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.93059414779976</v>
+        <v>78.11505674671385</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.16424192123093</v>
+        <v>86.81133029258842</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-18.01915354651133</v>
+        <v>2.352244127196414</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-10.36622708956182</v>
+        <v>24.36584996846946</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-7.792135044817122</v>
+        <v>28.69003337702823</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-20.46976480915797</v>
+        <v>4.337110282356896</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-12.15818523141694</v>
+        <v>21.62389917961263</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-9.369240429378898</v>
+        <v>26.50276837724779</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-15.70878957575479</v>
+        <v>14.79063802299392</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-8.834075295082776</v>
+        <v>29.00135997589432</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-6.506034042847894</v>
+        <v>32.76299753146669</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-10.4630168028575</v>
+        <v>31.88039183385847</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-1.97413022065205</v>
+        <v>38.88021608973032</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1.118018369168453</v>
+        <v>41.93729200521818</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-12.19123905742081</v>
+        <v>13.38069953390962</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.7485932867798368</v>
+        <v>32.94729493397771</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.958401347684401</v>
+        <v>38.59375809816456</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-17.40442383182087</v>
+        <v>6.058984773043804</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-9.847884661193014</v>
+        <v>31.54156004099831</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-7.30444081087898</v>
+        <v>37.36555031226699</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-19.90329354151087</v>
+        <v>3.896712909068924</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-11.69612078165985</v>
+        <v>24.93454380354292</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-8.940459013005615</v>
+        <v>31.25965196816679</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-15.21832742059124</v>
+        <v>17.11669744615246</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-8.42969640560117</v>
+        <v>34.34264515883081</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-6.129442578089503</v>
+        <v>39.38870150234092</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-10.05199983178746</v>
+        <v>38.39992313522193</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-1.67219018259506</v>
+        <v>47.93004260197608</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1.384265125741067</v>
+        <v>51.99384896786692</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-11.7530342023017</v>
+        <v>17.08322749230076</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.022335296732436</v>
+        <v>41.41978319449476</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>5.182485339484963</v>
+        <v>48.56699455910332</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-8.869445143476248</v>
+        <v>14.66577365430675</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1.267830814141853</v>
+        <v>41.72092210643157</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>1.271585344173673</v>
+        <v>48.58662999438548</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-10.92136639214677</v>
+        <v>12.41970686334521</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-2.664100357667351</v>
+        <v>35.23460270500044</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.08849101796258907</v>
+        <v>42.68552349871672</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-5.967005585490135</v>
+        <v>28.1225914211355</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.8653226055711158</v>
+        <v>46.91269358300772</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>3.162043049394299</v>
+        <v>52.92835959355278</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-0.8792550637016063</v>
+        <v>54.06775179609417</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>7.585272858403229</v>
+        <v>64.66606085620727</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>10.64742086964761</v>
+        <v>69.36118463146153</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-2.725750484464072</v>
+        <v>30.58672156899426</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.11581528045048</v>
+        <v>57.074183890727</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>14.27326745295458</v>
+        <v>65.39153500147319</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.027705152257333</v>
+        <v>9.988239644172042</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.73532947526761</v>
+        <v>33.36057511903223</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>14.31914292148593</v>
+        <v>37.62072858321926</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>2.344082549715331</v>
+        <v>12.39573141070544</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.71587679426205</v>
+        <v>30.95255544223179</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.51375657555582</v>
+        <v>35.72386859621896</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>7.624865209639566</v>
+        <v>23.63391855783215</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.54881382078009</v>
+        <v>38.95396822268976</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.88451968168919</v>
+        <v>42.62422748947834</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.3293619742248</v>
+        <v>41.38726192212678</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>20.8801810735478</v>
+        <v>49.01629911203617</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.98185002767362</v>
+        <v>51.94744128575499</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.899931112919475</v>
+        <v>21.70400400782581</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.93637834964369</v>
+        <v>42.67464180063973</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.15996740404517</v>
+        <v>48.19367900676139</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.432503389275176</v>
+        <v>16.3021913933057</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.04285835711499</v>
+        <v>43.2996652496316</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>14.59579722969109</v>
+        <v>48.93596466781145</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>2.692737226868729</v>
+        <v>14.60162814908957</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.95915766291174</v>
+        <v>37.05075166180282</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>13.72352354771662</v>
+        <v>43.13348709786283</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>7.892407297964162</v>
+        <v>28.83243576110444</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.72948604061257</v>
+        <v>47.29624927986613</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>17.03720952383945</v>
+        <v>52.12930678861041</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>12.52242175547412</v>
+        <v>51.11390239123418</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>20.96324105031943</v>
+        <v>61.37004097203307</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.02896658264413</v>
+        <v>65.28802705829438</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>10.12691929276269</v>
+        <v>28.57182774235894</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.99733131942926</v>
+        <v>54.49535833419372</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.17089180846943</v>
+        <v>61.3581104822948</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.5736508906302</v>
+        <v>24.28837112655162</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.23203236349946</v>
+        <v>52.84677207616089</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.78196888971986</v>
+        <v>59.6065415033</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.26874683071619</v>
+        <v>22.42709711690451</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.58850996493219</v>
+        <v>46.64447670415019</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.35096972338804</v>
+        <v>53.94913747963168</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>16.73217702417379</v>
+        <v>39.16961561115447</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.61561525019768</v>
+        <v>59.18895186906462</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.92077232359268</v>
+        <v>65.07108473596342</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>21.29693711701175</v>
+        <v>66.21836203672252</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.82619589920013</v>
+        <v>77.56030703867512</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.89845578946073</v>
+        <v>82.0824430957264</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>18.76912612017291</v>
+        <v>41.46923714502484</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.71084898505295</v>
+        <v>69.54575634496413</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.88366547875079</v>
+        <v>77.67063507999083</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>22.98899107675311</v>
+        <v>3.184619330135209</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.61098389958981</v>
+        <v>25.48771312439589</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>33.1724786950323</v>
+        <v>29.72419092299141</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.0341586111436</v>
+        <v>5.375250670683062</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.31283956434558</v>
+        <v>22.81483197278835</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>33.08655192319119</v>
+        <v>27.56462335420722</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.67009866291775</v>
+        <v>15.93092364323832</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.51687094907329</v>
+        <v>30.28432168105807</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.83257531015623</v>
+        <v>33.93778445981781</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.88488850102732</v>
+        <v>33.13390131273259</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.33622697255448</v>
+        <v>40.22435955924946</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.41057102031409</v>
+        <v>43.13579028067794</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.93571390430201</v>
+        <v>14.59895472265254</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.8286026057457</v>
+        <v>34.3241678020058</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>46.01470052464202</v>
+        <v>39.83902548724274</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.15431973389322</v>
+        <v>4.656319748979826</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>30.6796778080271</v>
+        <v>30.49983878399648</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>33.21060947953299</v>
+        <v>36.14905760837333</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.13567367252419</v>
+        <v>2.54202179558898</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.30968302418924</v>
+        <v>23.79839271958748</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>33.0502029129357</v>
+        <v>29.90265558560948</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.68570232000512</v>
+        <v>15.84984443311407</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.44617722198063</v>
+        <v>33.27536249441543</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.73416631578914</v>
+        <v>38.13420680171183</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.83231938162177</v>
+        <v>37.43341671746281</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>40.17442975557037</v>
+        <v>47.1194726767161</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>43.21318884190003</v>
+        <v>50.99005528495147</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.92384865431322</v>
+        <v>16.10034286865892</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>41.65183886984694</v>
+        <v>40.68492426389906</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>45.78838905998636</v>
+        <v>47.58397537993827</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.82805831405638</v>
+        <v>14.70875641068795</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>38.4019044397199</v>
+        <v>42.20362989124956</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.92984151939086</v>
+        <v>48.91715495695212</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.22361506317096</v>
+        <v>12.47839975817529</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.45140618514696</v>
+        <v>35.59129097234327</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.19006608624922</v>
+        <v>42.85784326634217</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.02756679816509</v>
+        <v>28.38384142695049</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.83476589241636</v>
+        <v>47.4435192949414</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.1202346631732</v>
+        <v>53.30024252272756</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.1189044423721</v>
+        <v>54.63045957868766</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.54917674981323</v>
+        <v>65.41376756980895</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.59481521917537</v>
+        <v>69.87355256246582</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>37.0889580328916</v>
+        <v>30.96871816680178</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>49.88885258631076</v>
+        <v>57.7978629245556</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>54.02479567500612</v>
+        <v>65.89706330140551</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>3.286114168415125</v>
+        <v>-4.053593251496157</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.71905961634462</v>
+        <v>17.01409634905762</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.22747574728187</v>
+        <v>20.94084796952348</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>1.495339524664566</v>
+        <v>-2.635956424823458</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>9.568959201369495</v>
+        <v>13.67843931708277</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>12.28495619275332</v>
+        <v>18.07371704791708</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>6.531624314371953</v>
+        <v>7.080091547884621</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.20832702350422</v>
+        <v>20.47662830434682</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.47552108641732</v>
+        <v>23.83429822735973</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.12185449602481</v>
+        <v>23.17538550236234</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.36422949646925</v>
+        <v>29.822932032971</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.37494519077005</v>
+        <v>32.61993574244447</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>8.841009475699551</v>
+        <v>5.680581929086621</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.41760379545377</v>
+        <v>24.16095686252379</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.51718125575235</v>
+        <v>29.24952186783664</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>3.661879030406126</v>
+        <v>-0.6524470962048774</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.00069081341245</v>
+        <v>23.86773942339507</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.47910305647918</v>
+        <v>29.18111099212967</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1.816882007467484</v>
+        <v>-3.239569184013529</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.788535272909904</v>
+        <v>16.78993350821171</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.47193147957623</v>
+        <v>22.52030763461569</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.773997056605843</v>
+        <v>9.215238534775638</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>13.36664655116547</v>
+        <v>25.60433977388978</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.60662597526032</v>
+        <v>30.14735442441484</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.29230857962205</v>
+        <v>29.58187595770878</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.42823815394699</v>
+        <v>38.76282821817675</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.40397699851398</v>
+        <v>42.51426202171795</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.044706778817364</v>
+        <v>9.33728360031748</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.46061574309847</v>
+        <v>32.54441669914966</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.51151377754064</v>
+        <v>39.00498524264141</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.81374318338397</v>
+        <v>9.852682587081059</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.20131256112257</v>
+        <v>36.0174492268615</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.67739237125102</v>
+        <v>42.38367801361907</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.40342298864191</v>
+        <v>7.146545397813941</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>18.42917337486465</v>
+        <v>29.02217161424133</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.11147254221964</v>
+        <v>35.90023907242488</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.62501221454762</v>
+        <v>22.16075904820853</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.26457944327064</v>
+        <v>40.17476145373788</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.50269748284506</v>
+        <v>45.70301227967568</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.07615760787138</v>
+        <v>47.05326238861107</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.30025383007337</v>
+        <v>57.33258672298604</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.28352541918887</v>
+        <v>61.66006473352613</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.6916069983187</v>
+        <v>24.5213483597306</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.18005436180724</v>
+        <v>49.95837430622838</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.23147636400525</v>
+        <v>57.6060618524625</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-11.39871197395784</v>
+        <v>9.165993932898921</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-3.602768879628464</v>
+        <v>32.05313586106536</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.967832528797949</v>
+        <v>36.83447281545195</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-13.6360699622987</v>
+        <v>11.80684071028974</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-5.178481010352606</v>
+        <v>29.57216253986213</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-2.322226500091936</v>
+        <v>34.94757474874403</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-8.577434519862699</v>
+        <v>22.62616422868447</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1.580203488710815</v>
+        <v>37.21137585675532</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>0.8050730289609334</v>
+        <v>41.38661154615119</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-3.364872260061631</v>
+        <v>40.47239247168498</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>5.286311317062214</v>
+        <v>47.47536212451898</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>8.450432180997602</v>
+        <v>51.27947016615875</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-5.222209625068878</v>
+        <v>21.7961152460467</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>7.937836102719736</v>
+        <v>41.73291626594714</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.24975488642283</v>
+        <v>48.05458572692595</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-10.72485484466412</v>
+        <v>12.05556782379766</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-3.025258026104879</v>
+        <v>38.50578686120987</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-0.4207995479971132</v>
+        <v>44.8478129901624</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-13.00774379091157</v>
+        <v>10.25435246345653</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-4.654414984790357</v>
+        <v>31.88431876993151</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1.831218100452837</v>
+        <v>38.76297209430065</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-8.025140893416228</v>
+        <v>23.83988362822738</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1.113861043345899</v>
+        <v>41.52604717326156</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1.243803651636057</v>
+        <v>47.03473518626183</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-2.895604215498231</v>
+        <v>46.16136542366483</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.646688425555311</v>
+        <v>55.83852451773589</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>8.775703654322108</v>
+        <v>60.76984437270661</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-4.729713739375335</v>
+        <v>24.48821504158313</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>8.265846263936368</v>
+        <v>49.36574892783705</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.52851505799364</v>
+        <v>57.25222196889194</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-2.680638196545665</v>
+        <v>19.83898941604606</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>5.061913714662992</v>
+        <v>47.83903716109999</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>7.658045979664472</v>
+        <v>55.30959310164459</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-4.544521004797268</v>
+        <v>17.91165714871463</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>3.856568497965675</v>
+        <v>41.30229322487135</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.672083462495152</v>
+        <v>49.38779494595998</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>0.6930961389609394</v>
+        <v>34.13421010227675</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.646203313416223</v>
+        <v>53.36547532662014</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>9.996353231648669</v>
+        <v>59.91825013691288</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>5.752833425150875</v>
+        <v>61.47505524733069</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.3782372570436</v>
+        <v>72.17721931600002</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.50599159587359</v>
+        <v>77.78535683125804</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>3.786963477844061</v>
+        <v>37.45476426601016</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.84616983717881</v>
+        <v>64.48779070170255</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.09894425651665</v>
+        <v>73.61861160464667</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.19392574060804</v>
+        <v>13.13439396364367</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.8542486711686</v>
+        <v>36.16911507294623</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.42424444751795</v>
+        <v>40.54396273187342</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.1848659753049</v>
+        <v>15.82398059457168</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.5056256815972</v>
+        <v>34.1123140884151</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.28950776231604</v>
+        <v>39.02671184544009</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.79435224855862</v>
+        <v>26.99674131912677</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.67615765572362</v>
+        <v>42.07909671602126</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.00002033733018</v>
+        <v>45.87134829216103</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.09418268541872</v>
+        <v>44.75367727149585</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.59164780120864</v>
+        <v>52.23560179394709</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>40.67739806307178</v>
+        <v>55.23278953741786</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.18911551184777</v>
+        <v>25.36099645103134</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>39.14554455136723</v>
+        <v>46.05998844833613</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>43.34805070519468</v>
+        <v>51.75002497031078</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.40207588752229</v>
+        <v>14.61951694915431</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.96538723392504</v>
+        <v>41.13620736624161</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.50463146746171</v>
+        <v>46.94194149808145</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.32937200086747</v>
+        <v>13.03197986475095</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.54503870874151</v>
+        <v>35.07681182974345</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.29552698282983</v>
+        <v>41.36116453377984</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.85371601738254</v>
+        <v>26.94614170381524</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.64887043278942</v>
+        <v>45.05074393393161</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.94485206344737</v>
+        <v>50.05942315701056</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.08427835858239</v>
+        <v>49.05130599681612</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.47196850427117</v>
+        <v>59.08577245572318</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.52190867072986</v>
+        <v>63.06449859644849</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.2192179427643</v>
+        <v>26.8976473728556</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.01012140596934</v>
+        <v>52.3843170727298</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.16278102225974</v>
+        <v>59.48405771830723</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.07594513148387</v>
+        <v>22.29013799023722</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.68681705292165</v>
+        <v>50.38240238466345</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.22311484494682</v>
+        <v>57.25614493211296</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.41860345870752</v>
+        <v>20.58338706183369</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.68706496570064</v>
+        <v>44.41175625140359</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.43565558299936</v>
+        <v>51.85347296422658</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.19525050922687</v>
+        <v>36.96103708850078</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.03633283333558</v>
+        <v>56.63487609827173</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>42.32977371712548</v>
+        <v>62.63904085032286</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>37.37009433915571</v>
+        <v>63.772592244805</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.84529636075321</v>
+        <v>74.89790629780364</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.90210464901492</v>
+        <v>79.49178949632196</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.38566593052069</v>
+        <v>39.43751805512237</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.24687872374465</v>
+        <v>67.08581933245762</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>51.39874294526247</v>
+        <v>75.38276664399503</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>48.29348804204017</v>
+        <v>18.36208196086162</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>56.25104182486776</v>
+        <v>42.55529082670651</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>58.92923609462711</v>
+        <v>47.55611385943359</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>48.37926739567679</v>
+        <v>22.02292956203608</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>57.01343759150451</v>
+        <v>41.13006194497789</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>59.91623980723028</v>
+        <v>46.74519808422843</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>54.90116735883856</v>
+        <v>33.61767115697019</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>62.04408564345432</v>
+        <v>49.37065592316277</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>64.46824811651045</v>
+        <v>53.75570690958808</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.72082325617522</v>
+        <v>52.45745561524593</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>67.55273095052414</v>
+        <v>60.0864934201641</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>70.76848222929367</v>
+        <v>63.95388773038154</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>54.95059908211052</v>
+        <v>32.62152416722698</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>68.38663248203436</v>
+        <v>54.04657767779253</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>72.7692208623144</v>
+        <v>60.65192328014056</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.33515580991713</v>
+        <v>21.52022063005191</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>56.19360497647599</v>
+        <v>49.31639307807461</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>58.84050188627293</v>
+        <v>55.84000989499646</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>48.34978255886372</v>
+        <v>20.66416351319626</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>56.87669066213992</v>
+        <v>43.67360810361882</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>59.74555704991953</v>
+        <v>50.74650243200654</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>54.77967252985646</v>
+        <v>35.09359948420969</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>61.83415388990076</v>
+        <v>53.98341869719496</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.22996787896967</v>
+        <v>59.6602323052003</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>58.53088147634944</v>
+        <v>58.53939763971763</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>67.25070682359872</v>
+        <v>68.86677108190005</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>70.43040799083283</v>
+        <v>73.87130511454487</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>54.80470370449828</v>
+        <v>35.70602910743067</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>68.07157621849531</v>
+        <v>62.12677220067653</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>72.40357709004468</v>
+        <v>70.24200211475281</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>55.02535372841736</v>
+        <v>27.64962289559272</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>62.93050749140118</v>
+        <v>56.91697619929168</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>65.57058899338394</v>
+        <v>64.59447854667252</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>55.40812534562777</v>
+        <v>26.65064315361001</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>63.98689261506102</v>
+        <v>51.34269375643188</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>66.84967306873746</v>
+        <v>59.64991901367338</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>62.0661411360653</v>
+        <v>43.64891495420974</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>69.16589842155688</v>
+        <v>64.01379738772511</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>71.55553529280881</v>
+        <v>70.75857202722008</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>65.78370530337395</v>
+        <v>72.16721294716737</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>74.59163254674159</v>
+        <v>83.49287054918013</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.77186467908032</v>
+        <v>89.16377351153935</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>61.96869697456533</v>
+        <v>47.05047737363773</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>75.30526474069106</v>
+        <v>75.54365120748861</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>79.6299344053735</v>
+        <v>84.9275091986613</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>143.5907728478001</v>
+        <v>14.7742579412929</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>152.3138924792827</v>
+        <v>37.25129281066594</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>155.2712206065595</v>
+        <v>42.00155595778708</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>147.333665510835</v>
+        <v>17.97464767561774</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>156.7980532085447</v>
+        <v>35.45090805921177</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>160.0033583176563</v>
+        <v>40.78432078884992</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>156.6557032813599</v>
+        <v>28.49572664971034</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>164.4835428692425</v>
+        <v>42.85617304942424</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>167.1600754262357</v>
+        <v>47.01086717925941</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>158.4692545693111</v>
+        <v>45.9100590267559</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>168.1466786900204</v>
+        <v>52.78022751580561</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>171.6985603597827</v>
+        <v>56.63869783874024</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>151.3311105649586</v>
+        <v>27.53070659992157</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>166.0698311767246</v>
+        <v>47.11344533238925</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>170.9088151583458</v>
+        <v>53.40229057008538</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>142.5945211158817</v>
+        <v>19.26496655955318</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>151.2076815793359</v>
+        <v>45.20702430790108</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>154.1299315465935</v>
+        <v>51.48125119196517</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>146.2199844696</v>
+        <v>18.26885134003833</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>155.5653704377288</v>
+        <v>39.50341924582889</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>158.7326072093347</v>
+        <v>46.3035180134695</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>155.416650284884</v>
+        <v>31.51630101139037</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>163.1463801122944</v>
+        <v>48.8939640566029</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>165.7911169178543</v>
+        <v>54.34733973095577</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>157.1804029052961</v>
+        <v>53.33455446707062</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>166.733278790393</v>
+        <v>62.81236713693881</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>170.2447710004571</v>
+        <v>67.80433522800578</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>150.1234402940009</v>
+        <v>31.99470306495989</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>164.674468709283</v>
+        <v>56.38747846931601</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>169.4566526115151</v>
+        <v>64.20509283125637</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>147.7854645146634</v>
+        <v>25.4988847939235</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>156.4591506370908</v>
+        <v>52.89604936774569</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>159.3764743944235</v>
+        <v>60.27467303364268</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>151.7337472349569</v>
+        <v>24.33565787805658</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>161.1461531461339</v>
+        <v>47.23260288260936</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>164.3095586834332</v>
+        <v>55.20854819084413</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>161.1414899429353</v>
+        <v>40.10752582936875</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>168.9293513950184</v>
+        <v>58.94170458916224</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>171.5696910682788</v>
+        <v>65.4128395046435</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>162.9274435298059</v>
+        <v>66.86218555997306</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>172.5883727088216</v>
+        <v>77.31934369461078</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>176.103441998679</v>
+        <v>82.96885625125589</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>155.8390387029364</v>
+        <v>43.28362519817087</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>170.4814924416989</v>
+        <v>69.72071493214344</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>175.2602449797198</v>
+        <v>78.74852163785448</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>44.58863153339332</v>
+        <v>11.82189913938049</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>52.57002645963743</v>
+        <v>36.09177547158701</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>55.25510195797583</v>
+        <v>40.79863887308299</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>44.53266952586886</v>
+        <v>14.57411121044505</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.19876720575858</v>
+        <v>33.88604641841118</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>56.1080398383237</v>
+        <v>39.1883717723911</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.98187498236119</v>
+        <v>26.36316510645126</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>58.14965130815748</v>
+        <v>42.29322087513824</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>60.57849392897417</v>
+        <v>46.39794265652708</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.85292030239432</v>
+        <v>45.18376118645823</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>63.70829150518471</v>
+        <v>52.9975238313763</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>66.93363073085843</v>
+        <v>56.36364584456905</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>51.06824325119777</v>
+        <v>24.82077016951978</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>64.56066485935487</v>
+        <v>46.61893839564854</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>68.95283143307459</v>
+        <v>52.77195397033716</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>44.58579653549347</v>
+        <v>14.26939720973877</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>52.46660453621133</v>
+        <v>42.14334050493931</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>55.119804476306</v>
+        <v>48.32876293416001</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>44.45575712612409</v>
+        <v>12.50942462253317</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>53.01292167500236</v>
+        <v>35.7119029517171</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>55.88759847175706</v>
+        <v>42.42582596835277</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>50.811261412435</v>
+        <v>27.1598609403288</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.8892237583784</v>
+        <v>46.21875269560363</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.28917751326512</v>
+        <v>51.57575782991618</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>54.61521789182881</v>
+        <v>50.48512491664233</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.35673257910125</v>
+        <v>60.94332750057701</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>66.54512052865408</v>
+        <v>65.36681065444213</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>50.87816173406214</v>
+        <v>27.22304264951191</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>64.19892220662935</v>
+        <v>53.9860748092443</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>68.53946660143293</v>
+        <v>61.59606347610123</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>51.75960311216357</v>
+        <v>21.12343912644467</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>59.69042877419263</v>
+        <v>50.545432286175</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>62.33932763643739</v>
+        <v>57.87255148930468</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.02495338963768</v>
+        <v>19.24456340718638</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>60.6376285220669</v>
+        <v>44.20804501871997</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.50896956258602</v>
+        <v>52.15256811644279</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>58.6239991627736</v>
+        <v>36.42363799307076</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>65.75026087722622</v>
+        <v>57.03106811729829</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>68.14639552347703</v>
+        <v>63.44861003802179</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>62.38825805534668</v>
+        <v>64.7364998320092</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>71.22185371562097</v>
+        <v>76.28069884396037</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>74.41494679583114</v>
+        <v>81.36955377997796</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>58.55110114655474</v>
+        <v>39.26326204223125</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>71.94627237866078</v>
+        <v>68.17522319521554</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>76.2838403303702</v>
+        <v>77.05790259975299</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>20.25032042704351</v>
+        <v>7.005059589114325</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.90548865936669</v>
+        <v>28.94867498639876</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.50487393619869</v>
+        <v>33.44224285481517</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.21730296025707</v>
+        <v>9.468406030937016</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.52237641399024</v>
+        <v>26.52949156732014</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.33982216058606</v>
+        <v>31.58563297580939</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.86538612954963</v>
+        <v>19.76160845682245</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.73581525125037</v>
+        <v>33.7748052867629</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.08875655758915</v>
+        <v>37.69033162783761</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.23353753010351</v>
+        <v>36.81559405658849</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.72402692687581</v>
+        <v>43.61853674335122</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>40.84638621292336</v>
+        <v>47.14097512099556</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.45677000868156</v>
+        <v>18.76599028740863</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>39.38274445777123</v>
+        <v>37.92933439566951</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>43.63567916200465</v>
+        <v>43.86613683678368</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.57970710448982</v>
+        <v>11.66015424218663</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.13993257052756</v>
+        <v>37.09393079196728</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.70914450639891</v>
+        <v>43.15439940721761</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>19.48921431980803</v>
+        <v>10.00760073445877</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.69155353273329</v>
+        <v>30.85029230565883</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.4762699471141</v>
+        <v>37.4278264582884</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.05517904614069</v>
+        <v>23.02812812584825</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.84091832481371</v>
+        <v>40.08014985758162</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.16651927507155</v>
+        <v>45.34349313008141</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.35024790283803</v>
+        <v>44.35731091326662</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>37.73342401373102</v>
+        <v>53.74556216716701</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.82098747738844</v>
+        <v>58.36206676999193</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.60703239612672</v>
+        <v>23.39279642699206</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>39.37090951052248</v>
+        <v>47.37875369852003</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>43.57508947029913</v>
+        <v>54.90715065858203</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.8485110565811</v>
+        <v>18.80545800916966</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.45336386642688</v>
+        <v>45.714503628907</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.01546536385067</v>
+        <v>52.86923118119761</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.14913072326874</v>
+        <v>16.96963164852626</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.40108301196695</v>
+        <v>39.49165336848343</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.17939017091854</v>
+        <v>47.24047240608519</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.95241970746791</v>
+        <v>32.47593739899551</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.78147845245198</v>
+        <v>51.00311770900935</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.1006767502006</v>
+        <v>57.2791055205757</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>37.19535653781804</v>
+        <v>58.54027581739539</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.66312904292862</v>
+        <v>68.90372568516776</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.75082326452083</v>
+        <v>74.19636904803214</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.34187027581264</v>
+        <v>35.37856181446978</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>47.17236522648041</v>
+        <v>61.41588446474935</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>51.36851865292056</v>
+        <v>70.16086002307097</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>144.0166932466246</v>
+        <v>11.46041992358193</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>152.7264497537247</v>
+        <v>33.63372877163289</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>155.6799096348255</v>
+        <v>38.39807588009401</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>147.7794999653531</v>
+        <v>14.48500098092301</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>157.2292363036431</v>
+        <v>31.670959314912</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>160.4304880842298</v>
+        <v>37.02030467846785</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>157.1011588202635</v>
+        <v>24.79992797799347</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>164.9169236889134</v>
+        <v>38.90802884472086</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>167.5900772410112</v>
+        <v>43.077971431612</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>158.9003152987044</v>
+        <v>42.16028822199047</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>168.562894742034</v>
+        <v>48.90698986352917</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>172.1101724832387</v>
+        <v>52.79184285134707</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>151.7576372958016</v>
+        <v>24.07747654770307</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>166.4733316080584</v>
+        <v>43.33919784097773</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>171.3062102609798</v>
+        <v>49.6454833145121</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>143.0140984159336</v>
+        <v>15.57713002709387</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>151.6140663829927</v>
+        <v>41.19716348969108</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>154.5325143640322</v>
+        <v>47.51803072419627</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>146.6594012226624</v>
+        <v>14.41165279590595</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>155.9903226193407</v>
+        <v>35.33908226676888</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>159.1535770383168</v>
+        <v>42.19114401705577</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>155.8556709660642</v>
+        <v>27.41782015791114</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>163.5734790500503</v>
+        <v>44.52839459484248</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>166.2148959152682</v>
+        <v>50.02904562631646</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>157.6052796556543</v>
+        <v>49.13158247940559</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>167.1435004449723</v>
+        <v>58.47790887370602</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>170.6504724973715</v>
+        <v>63.50356833088043</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>150.543886986862</v>
+        <v>28.09267390878309</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>165.0721866065945</v>
+        <v>52.14233658939445</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>169.8483737407949</v>
+        <v>60.01778170774799</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>148.1686925646094</v>
+        <v>22.09057656355046</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>156.8288798072477</v>
+        <v>49.17293099937537</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>159.7423028275325</v>
+        <v>56.58662064184121</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>152.1347272537441</v>
+        <v>20.77093050278224</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>161.5323265378197</v>
+        <v>43.3668526408257</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>164.6916390651606</v>
+        <v>51.38158264963401</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>161.5409429333662</v>
+        <v>36.30280564732943</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>169.3166005520195</v>
+        <v>54.87553583377206</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>171.9535283812008</v>
+        <v>61.38303216586741</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>163.3131467580226</v>
+        <v>62.92429771385549</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>172.9589722866504</v>
+        <v>73.24534112036777</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>176.4694043468435</v>
+        <v>78.93065828430483</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>156.221104371799</v>
+        <v>39.64149856989191</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>170.8403121746485</v>
+        <v>65.74031132235307</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>175.6128805588465</v>
+        <v>74.81373180488148</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.41982136637733</v>
+        <v>17.70412755578045</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.22165912045906</v>
+        <v>40.9446743390724</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.84958103275353</v>
+        <v>45.55167125415887</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>20.46178786699064</v>
+        <v>21.27905151013022</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.92732941356484</v>
+        <v>39.55378491040339</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.77535787113408</v>
+        <v>44.75038848024852</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.23726303995392</v>
+        <v>32.42476925351625</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.24038431568928</v>
+        <v>47.50145922082582</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.61891458940828</v>
+        <v>51.53609185118674</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.63318408909705</v>
+        <v>50.2522596353356</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.28812664848253</v>
+        <v>57.49295293128354</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.44263503141116</v>
+        <v>60.90465500051511</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>27.75577564248739</v>
+        <v>31.16330541872789</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>40.93286753194454</v>
+        <v>51.68916845207073</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.23030564087246</v>
+        <v>57.79834113790274</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>21.71555566688215</v>
+        <v>19.89523794168013</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.42028562068305</v>
+        <v>46.65525767087864</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.01739183145791</v>
+        <v>52.65570817633972</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.6976712630527</v>
+        <v>19.00788089730032</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.05810294476787</v>
+        <v>41.09812374196417</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.87269794529375</v>
+        <v>47.61434302808232</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.38862249725642</v>
+        <v>32.93336163474068</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.30508977861953</v>
+        <v>51.07256633350533</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.65569256525079</v>
+        <v>56.28418903815093</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.71124472511744</v>
+        <v>55.20512866247867</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.25640056746998</v>
+        <v>65.03705138105104</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.37533921486349</v>
+        <v>69.45543520174314</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.86933306569236</v>
+        <v>33.23534265733624</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>40.88064417741538</v>
+        <v>58.63319512121812</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>45.12826075864977</v>
+        <v>66.09086598904477</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.02503819135028</v>
+        <v>26.5032258954462</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.77414045822466</v>
+        <v>54.74355233373438</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.36440392953829</v>
+        <v>61.82938565328243</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.39781590811763</v>
+        <v>25.38254462917023</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>36.80759443773805</v>
+        <v>49.15888833854487</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>39.61610262855439</v>
+        <v>56.84630674364104</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.33008204991327</v>
+        <v>41.85520022766501</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>41.28969047784898</v>
+        <v>61.47389082890049</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>43.63412593332031</v>
+        <v>67.69487644843434</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>38.60218987422303</v>
+        <v>68.96319811932742</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.23183012300821</v>
+        <v>79.80514996385847</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>50.35180709283585</v>
+        <v>84.85087510865725</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>35.65038328906978</v>
+        <v>44.75014714507454</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>48.72736741728404</v>
+        <v>72.21308382018503</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>52.96773145782488</v>
+        <v>80.87704435180245</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>34.19072539782781</v>
+        <v>12.17786951100805</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>42.14062138368891</v>
+        <v>36.47645217324725</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>44.81315621889356</v>
+        <v>41.20868488364107</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.76047347076628</v>
+        <v>15.07781343058751</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>42.39110118455804</v>
+        <v>34.42481472014903</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.28702495215867</v>
+        <v>39.75061299087616</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>39.95152979399079</v>
+        <v>26.82548450930523</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>47.0905703514709</v>
+        <v>42.78759385404347</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>49.50836727770069</v>
+        <v>46.91691385705005</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.07878992778593</v>
+        <v>45.69147915641578</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>52.90086415327056</v>
+        <v>53.5129673976243</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.11033428685509</v>
+        <v>56.93614606424475</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>40.65757827762283</v>
+        <v>25.36380459172486</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>54.09191575255625</v>
+        <v>47.18978364649668</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>58.46404713768516</v>
+        <v>53.3766368802667</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.31457111125829</v>
+        <v>14.70855088265728</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>42.16468298561175</v>
+        <v>42.60428299454837</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>44.80552734936649</v>
+        <v>48.82135191911785</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.81528305004818</v>
+        <v>13.10490001640975</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.33785920869521</v>
+        <v>36.33599458891815</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>45.1993992848122</v>
+        <v>43.08101559008657</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.9160247773336</v>
+        <v>27.69711634606597</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>46.96597815776078</v>
+        <v>46.78275171976382</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.35506023969399</v>
+        <v>52.17081473506936</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.97331012125674</v>
+        <v>51.06678764943283</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>52.68246880882811</v>
+        <v>61.53198148929373</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>55.85522066681947</v>
+        <v>66.02305058044537</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.5951911735099</v>
+        <v>27.85299909217343</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>53.8592326134463</v>
+        <v>54.64152004669027</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>58.18007236569464</v>
+        <v>62.29003380943463</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>41.60313732459091</v>
+        <v>20.95190103985389</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>49.50110779453101</v>
+        <v>50.3524240753815</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>52.13728003651478</v>
+        <v>57.72958959620498</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>41.50077759056636</v>
+        <v>19.19607287617034</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>50.07649886262653</v>
+        <v>44.14303915442592</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>52.9342791100357</v>
+        <v>52.1370514897602</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>47.84523623937876</v>
+        <v>36.30429878626018</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>54.94150924832713</v>
+        <v>56.8982342757368</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>57.32641463396898</v>
+        <v>63.36269738857467</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>51.85712474260215</v>
+        <v>64.64795260756955</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>60.6556383206167</v>
+        <v>76.18163411068066</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>63.83251061871069</v>
+        <v>81.3459647169924</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>48.37419910101707</v>
+        <v>39.25141823224317</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>61.70930888912873</v>
+        <v>68.13821827788185</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>66.02642302802218</v>
+        <v>77.08037058437125</v>
       </c>
     </row>
   </sheetData>
